--- a/biology/Zoologie/Epipedobates/Epipedobates.xlsx
+++ b/biology/Zoologie/Epipedobates/Epipedobates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epipedobates est un genre d'amphibiens de la famille des Dendrobatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epipedobates est un genre d'amphibiens de la famille des Dendrobatidae.
 Les espèces de ce genre sont inscrites à l'annexe II de la Cites afin d'en contrôler la commercialisation.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sept espèces de ce genre se rencontrent en Équateur, au Pérou et en Colombie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sept espèces de ce genre se rencontrent en Équateur, au Pérou et en Colombie.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (11 juin 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (11 juin 2017) :
 Epipedobates anthonyi (Noble, 1921)
 Epipedobates boulengeri (Barbour, 1909)
 Epipedobates darwinwallacei Cisneros-Heredia &amp; Yánez-Muñoz, 2011
@@ -580,7 +596,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La majorité des espèces qui faisait partie de ce genre ont été transférées dans Ameerega.
 </t>
@@ -611,9 +629,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre est formé du grec epipedos, sur le sol, et de bates, le marcheur, en référence aux habitudes de ces espèces[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre est formé du grec epipedos, sur le sol, et de bates, le marcheur, en référence aux habitudes de ces espèces.
 </t>
         </is>
       </c>
@@ -642,7 +662,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Myers, 1987 : New generic names for some neotropical poison frogs (Dendrobatidae). Papeis Avulsos de Zoologia Museu de Zoologia da Universidade de Sao Paulo, vol. 36, no 25, p. 301–306 (texte intégral).</t>
         </is>
